--- a/biology/Botanique/Bambusiculmus/Bambusiculmus.xlsx
+++ b/biology/Botanique/Bambusiculmus/Bambusiculmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bambusiculmus est un genre éteint de plantes à fleurs fossiles monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, créé par une équipe de chercheurs chinois en 2013[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bambusiculmus est un genre éteint de plantes à fleurs fossiles monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, créé par une équipe de chercheurs chinois en 2013.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La création de ce genre, auquel ont été rattachées deux espèces fossiles, Bambusiculmus latus L. Wang et Z.K. Zhou, sp. nov., et Bambusiculmus angustus L. Wang et Z.K. Zhou, sp. nov., fait suite à la découverte de fossiles dans des gisements sédimentaires  situés à Sanzhangtian et appartenant à la formation Dajie datée du Miocène moyen (de 16 à 12 millions d'années) dans la province du Yunnan, comté de Zhenyuan, en Chine.
 Il s'agit d'empreintes de limbes foliaires et de chaumes de bambous Ces vestiges fossiles présentent des détails morphologiques : pseudopétiole distinct, nervation du limbe des feuilles à motifs parallélogrammiques, morphologie des nœuds culmaires, qui justifient le classement de ces taxons dans la sous-famille des Bambusoideae.
